--- a/statics/xlsx/facturas.xlsx
+++ b/statics/xlsx/facturas.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Facturacion de 2014-02-28 al 2014-02-28</t>
+  </si>
   <si>
     <t>Numero Factura</t>
   </si>
@@ -31,40 +34,19 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2014-02-26</t>
-  </si>
-  <si>
-    <t>16:24:03</t>
-  </si>
-  <si>
-    <t>16:31:42</t>
-  </si>
-  <si>
-    <t>17:32:08</t>
-  </si>
-  <si>
-    <t>17:32:15</t>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>16:41:48</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>233.00</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>1440.00</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>Total Facturado de 2014-02-26 a 2014-02-28</t>
-  </si>
-  <si>
-    <t>1918.00</t>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>Total Facturado</t>
   </si>
 </sst>
 </file>
@@ -81,19 +63,25 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,15 +96,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,106 +404,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="E3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/statics/xlsx/facturas.xlsx
+++ b/statics/xlsx/facturas.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Facturacion de 2014-02-28 al 2014-02-28</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Facturacion de 2014-03-02 al 2014-03-04</t>
   </si>
   <si>
     <t>Numero Factura</t>
@@ -34,19 +34,28 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2014-02-28</t>
-  </si>
-  <si>
-    <t>16:41:48</t>
+    <t>2014-03-03</t>
+  </si>
+  <si>
+    <t>15:29:57</t>
+  </si>
+  <si>
+    <t>16:37:52</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>300.00</t>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>167.00</t>
   </si>
   <si>
     <t>Total Facturado</t>
+  </si>
+  <si>
+    <t>267.00</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,18 +456,35 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/statics/xlsx/facturas.xlsx
+++ b/statics/xlsx/facturas.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
+  <si>
+    <t>Facturacion de 2014-03-01 al 2014-03-31</t>
+  </si>
   <si>
     <t>Numero Factura</t>
   </si>
@@ -37,6 +40,12 @@
     <t>2014-03-03</t>
   </si>
   <si>
+    <t>2014-03-04</t>
+  </si>
+  <si>
+    <t>2014-03-05</t>
+  </si>
+  <si>
     <t>10:36:34</t>
   </si>
   <si>
@@ -67,12 +76,72 @@
     <t>01:23:17</t>
   </si>
   <si>
+    <t>13:27:21</t>
+  </si>
+  <si>
+    <t>13:27:33</t>
+  </si>
+  <si>
+    <t>13:27:45</t>
+  </si>
+  <si>
+    <t>13:30:58</t>
+  </si>
+  <si>
+    <t>13:31:12</t>
+  </si>
+  <si>
+    <t>13:31:22</t>
+  </si>
+  <si>
+    <t>13:31:32</t>
+  </si>
+  <si>
+    <t>13:57:13</t>
+  </si>
+  <si>
+    <t>13:57:23</t>
+  </si>
+  <si>
+    <t>13:57:35</t>
+  </si>
+  <si>
+    <t>13:57:47</t>
+  </si>
+  <si>
     <t>14:07:06</t>
   </si>
   <si>
     <t>14:11:09</t>
   </si>
   <si>
+    <t>17:19:22</t>
+  </si>
+  <si>
+    <t>17:24:14</t>
+  </si>
+  <si>
+    <t>17:24:51</t>
+  </si>
+  <si>
+    <t>12:55:43</t>
+  </si>
+  <si>
+    <t>12:55:53</t>
+  </si>
+  <si>
+    <t>12:56:03</t>
+  </si>
+  <si>
+    <t>04:50:12</t>
+  </si>
+  <si>
+    <t>04:51:15</t>
+  </si>
+  <si>
+    <t>05:04:02</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -106,16 +175,73 @@
     <t>402.00</t>
   </si>
   <si>
+    <t>878.00</t>
+  </si>
+  <si>
+    <t>526.00</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>660.80</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>213.00</t>
+  </si>
+  <si>
+    <t>739.50</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>377.00</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
     <t>158.00</t>
   </si>
   <si>
     <t>220.00</t>
   </si>
   <si>
-    <t>Total Facturado de 2014-03-01 a 2014-03-03</t>
-  </si>
-  <si>
-    <t>4655.80</t>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>395.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>391.00</t>
+  </si>
+  <si>
+    <t>Total Facturado</t>
+  </si>
+  <si>
+    <t>11774.10</t>
   </si>
 </sst>
 </file>
@@ -132,19 +258,25 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,15 +291,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,242 +599,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
+      <c r="C32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/statics/xlsx/facturas.xlsx
+++ b/statics/xlsx/facturas.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Facturacion de 2014-03-02 al 2014-03-04</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Numero Factura</t>
   </si>
@@ -34,28 +31,91 @@
     <t>Total</t>
   </si>
   <si>
+    <t>2014-03-02</t>
+  </si>
+  <si>
     <t>2014-03-03</t>
   </si>
   <si>
-    <t>15:29:57</t>
-  </si>
-  <si>
-    <t>16:37:52</t>
+    <t>10:36:34</t>
+  </si>
+  <si>
+    <t>10:37:39</t>
+  </si>
+  <si>
+    <t>10:40:09</t>
+  </si>
+  <si>
+    <t>10:53:04</t>
+  </si>
+  <si>
+    <t>11:16:52</t>
+  </si>
+  <si>
+    <t>11:17:52</t>
+  </si>
+  <si>
+    <t>11:19:44</t>
+  </si>
+  <si>
+    <t>01:21:40</t>
+  </si>
+  <si>
+    <t>01:22:33</t>
+  </si>
+  <si>
+    <t>01:23:17</t>
+  </si>
+  <si>
+    <t>14:07:06</t>
+  </si>
+  <si>
+    <t>14:11:09</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>167.00</t>
-  </si>
-  <si>
-    <t>Total Facturado</t>
-  </si>
-  <si>
-    <t>267.00</t>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>759.00</t>
+  </si>
+  <si>
+    <t>841.00</t>
+  </si>
+  <si>
+    <t>136.80</t>
+  </si>
+  <si>
+    <t>402.00</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>Total Facturado de 2014-03-01 a 2014-03-03</t>
+  </si>
+  <si>
+    <t>4655.80</t>
   </si>
 </sst>
 </file>
@@ -72,25 +132,19 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,18 +159,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,78 +464,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
